--- a/final_data.xlsx
+++ b/final_data.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="dim_comm_type" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,30 +17,20 @@
     <sheet name="bridge_comm_user" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -53,42 +44,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -101,20 +62,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -483,11 +438,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
-  <cols>
-    <col width="13.06640625" customWidth="1" min="1" max="1"/>
-    <col width="22.46484375" customWidth="1" min="2" max="2"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -535,14 +486,10 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
-  <cols>
-    <col width="42.3984375" customWidth="1" min="1" max="1"/>
-    <col width="23" customWidth="1" min="2" max="2"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -723,15 +670,15 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>raw_calendar_id</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>calendar_id</t>
         </is>
@@ -904,15 +851,15 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>raw_audio_url</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>audio_id</t>
         </is>
@@ -1085,15 +1032,15 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>raw_video_url</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>video_id</t>
         </is>
@@ -1112,19 +1059,19 @@
   </sheetPr>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>raw_transcript_url</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>transcript_id</t>
         </is>
@@ -1300,32 +1247,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>user_id</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>location</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>displayName</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>phoneNumber</t>
         </is>
@@ -2747,7 +2694,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>a2440cd7-a4a9-4bc9-8306-af720bb609b1</t>
+          <t>84d490b2-9767-4462-8850-200dfcc1d762</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -5071,37 +5018,37 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>comm_id</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>user_id</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>isAttendee</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>isParticipant</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>isSpeaker</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>isOrganiser</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isHost</t>
         </is>
@@ -8058,7 +8005,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>a2440cd7-a4a9-4bc9-8306-af720bb609b1</t>
+          <t>84d490b2-9767-4462-8850-200dfcc1d762</t>
         </is>
       </c>
       <c r="C111" t="b">

--- a/final_data.xlsx
+++ b/final_data.xlsx
@@ -15,6 +15,7 @@
     <sheet name="dim_transcript" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="dim_user" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="bridge_comm_user" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="fact_communication" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2694,7 +2695,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>84d490b2-9767-4462-8850-200dfcc1d762</t>
+          <t>6afa9211-1bda-41f7-8842-891f85d74b7d</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -8005,7 +8006,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>84d490b2-9767-4462-8850-200dfcc1d762</t>
+          <t>6afa9211-1bda-41f7-8842-891f85d74b7d</t>
         </is>
       </c>
       <c r="C111" t="b">
@@ -12882,6 +12883,987 @@
       </c>
       <c r="G291" t="b">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>comm_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>raw_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>source_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>comm_type_id</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>subject_id</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>calendar_id</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>audio_id</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>video_id</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>transcript_id</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>datetime_id</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ingested_at</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>processed_at</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>is_processed</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>raw_title</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>raw_duration</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>de819d74-9b7d-4b60-863c-5f7f634a6402</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DDCD444CF2A04CA1BA108EE5</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>32A19D011A4C41F09FE3A2FB</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2025-04-26T03:21:33</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2025-06-12T13:29:09</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>2025-03-22T11:37:50</t>
+        </is>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Unleash Efficient Convergence</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>185.48661</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>d4746716-3350-4e7f-952f-b39a8dc430d3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>E462A7000DCA4A688FB880B3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>485F87C4F6E34F3189D1E3E9</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2025-05-04T13:03:14</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2025-03-11T19:29:43</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>2025-03-06T01:09:40</t>
+        </is>
+      </c>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Expedite Ubiquitous Synergies</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>154.750881</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>e509a9f2-c9a0-4ad0-9489-e22825e40488</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>66DE26DE41BC462AAE1BA7C8</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>B7E98770F4A542729D65AF41</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2025-05-28T11:39:36</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2025-03-27T06:41:29</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>2025-01-12T01:51:05</t>
+        </is>
+      </c>
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Synthesize Front-End E-Business</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>234.617079</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>77fb5908-4181-45b8-b484-f7bd4dd294c9</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>69D47DC9F39A4AA29B34AEFD</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>7A00DCB707B74395B2DD552F</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2025-03-11T03:06:20</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2025-05-06T02:23:25</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>2025-03-04T16:29:27</t>
+        </is>
+      </c>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Strategize End-To-End Users</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>226.883206</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>6ba3fa0e-41c1-4ed6-a782-900cc6af3580</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0D1BABD93ED04F099F2BCE2D</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1C96310A145B445799924A8F</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2025-01-13T08:23:52</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2025-05-09T05:48:27</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>2025-05-07T15:35:37</t>
+        </is>
+      </c>
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Syndicate Plug-And-Play Roi</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>182.51485</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>53ae22ee-102f-498e-af74-02858150b4f1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>D971E46E030B45C59016C670</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>17E270CB75D44D7B878446FD</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>6</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2025-06-16T16:41:04</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2025-04-10T15:39:00</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>2025-05-02T10:43:33</t>
+        </is>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Redefine Impactful Technologies</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>274.524294</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>f5c1524d-ba4b-41ce-9040-8d6a0427312b</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>061E3960E2994344B2F6111F</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>9BAED4F7F2A946E98EA74255</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>7</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2025-06-08T02:32:40</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2025-06-20T06:40:31</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>2025-02-25T20:36:16</t>
+        </is>
+      </c>
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Seize One-To-One E-Tailers</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>142.745584</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2228a789-8b05-498b-8fcf-59060a3fc3ff</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>309BC73AFC96438ABC427BE3</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>FDD0E6B0F22442929800223A</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>8</v>
+      </c>
+      <c r="G9" t="n">
+        <v>8</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>8</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2025-02-21T18:41:22</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2025-02-08T13:52:35</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>2025-02-26T13:26:01</t>
+        </is>
+      </c>
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Architect Innovative Technologies</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>202.796873</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>e4764e8a-d721-44eb-9a7d-0fa116297a86</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3BD64A8B7E09489295063BB1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1193FA2EE39E4577B722E0C3</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9</v>
+      </c>
+      <c r="F10" t="n">
+        <v>9</v>
+      </c>
+      <c r="G10" t="n">
+        <v>9</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>9</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2025-05-09T11:38:06</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>2025-04-20T03:11:46</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>2025-01-28T00:05:39</t>
+        </is>
+      </c>
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Harness Scalable Applications</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>83.569147</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>75223bb0-a1da-4a5c-b86a-22553b35f6fa</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>7BF9A45C462F416199489CEB</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>E956D396282C4C9CBEA6D515</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>10</v>
+      </c>
+      <c r="G11" t="n">
+        <v>10</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>10</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2025-03-28T09:02:06</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>2025-02-08T11:47:47</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>2025-01-13T22:37:58</t>
+        </is>
+      </c>
+      <c r="M11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Generate Holistic Communities</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>210.345085</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>5c87f87a-7cbf-48f5-a743-3bec2913f89e</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>3264DC341E75474F9DD1F3CD</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>76E722D352D04E79BEEB1195</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>11</v>
+      </c>
+      <c r="F12" t="n">
+        <v>11</v>
+      </c>
+      <c r="G12" t="n">
+        <v>11</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>11</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>2025-03-29T02:59:36</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>2025-02-20T21:38:09</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>2025-03-06T22:55:07</t>
+        </is>
+      </c>
+      <c r="M12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Disintermediate Integrated Infrastructures</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>279.264781</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>434c4129-4435-40fa-b112-ed478a64a1e6</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>497F0B2D36BD491DA85AD547</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>D108483847964EB28FC9E878</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>12</v>
+      </c>
+      <c r="F13" t="n">
+        <v>12</v>
+      </c>
+      <c r="G13" t="n">
+        <v>12</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>12</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>2025-01-07T18:57:57</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>2025-06-10T18:03:33</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>2025-02-28T22:04:40</t>
+        </is>
+      </c>
+      <c r="M13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Disintermediate Wireless Synergies</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>82.465112</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>b4028790-c501-42ba-9f50-cfdd39e39faa</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>09C4FEF0621F4CA38680CA6A</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1F5524E095C043E6ABC578FB</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>13</v>
+      </c>
+      <c r="F14" t="n">
+        <v>13</v>
+      </c>
+      <c r="G14" t="n">
+        <v>13</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>13</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2025-04-26T03:16:16</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>2025-02-19T08:00:48</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>2025-05-30T18:08:34</t>
+        </is>
+      </c>
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Generate Dynamic Markets</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
+        <v>195.706974</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>52f6bed2-8ab5-4382-873c-9ed97df72a60</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>6EEEAD2A50444D1897881582</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>EF784A9FE6104CE5983472C1</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>14</v>
+      </c>
+      <c r="F15" t="n">
+        <v>14</v>
+      </c>
+      <c r="G15" t="n">
+        <v>14</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>14</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>2025-04-07T17:20:53</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>2025-01-12T02:19:51</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>2025-01-20T15:13:11</t>
+        </is>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Drive Leading-Edge Eyeballs</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
+        <v>211.79227</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>b515b601-b205-47a6-9187-6fc59b779dc5</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>E6CECFEEDC50467F9C3DFFF2</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>E0DFC04D57324E16A1292526</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" t="n">
+        <v>15</v>
+      </c>
+      <c r="F16" t="n">
+        <v>15</v>
+      </c>
+      <c r="G16" t="n">
+        <v>15</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>15</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2025-05-30T01:14:03</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>2025-03-27T11:45:26</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>2025-04-15T12:28:10</t>
+        </is>
+      </c>
+      <c r="M16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Synthesize Dynamic Schemas</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
+        <v>230.444851</v>
       </c>
     </row>
   </sheetData>
